--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipin\New Volume\prasad-research.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927937D6-2236-41E8-ADE1-43CFE03D5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDD1F1-79FF-483B-9C62-82F7CACF3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,13 +499,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
     <col min="4" max="4" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="138" bestFit="1" customWidth="1"/>
   </cols>

--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipin\New Volume\prasad-research.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDD1F1-79FF-483B-9C62-82F7CACF3BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CAF189-66F7-4A2C-B4C4-2C94180CB88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,18 +42,6 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>images/people/vipin-gautam.jpg</t>
-  </si>
-  <si>
-    <t>images/people/aditi-shetkar.jpg</t>
-  </si>
-  <si>
-    <t>images/people/ashish-verma.jpg</t>
-  </si>
-  <si>
-    <t>images/people/anuj-abraham.jpg</t>
-  </si>
-  <si>
     <t>https://scholar.google.com/citations?user=qDlyTJIAAAAJ&amp;hl=en</t>
   </si>
   <si>
@@ -81,9 +69,6 @@
     <t>Andleep Zuhra</t>
   </si>
   <si>
-    <t>images/people/andleep-zuhra.jpg</t>
-  </si>
-  <si>
     <t>Alumni</t>
   </si>
   <si>
@@ -96,15 +81,6 @@
     <t>Harsh Kurdekar</t>
   </si>
   <si>
-    <t>images/people/kumar-pandion.jpg</t>
-  </si>
-  <si>
-    <t>images/people/pobbati-koushiki.jpg</t>
-  </si>
-  <si>
-    <t>images/people/harsh-kurdekar.jpg</t>
-  </si>
-  <si>
     <t>https://in.linkedin.com/in/vipin-gautam-1906</t>
   </si>
   <si>
@@ -150,9 +126,6 @@
     <t>https://scholar.google.com/citations?hl=en&amp;user=rFkFOjAAAAAJ</t>
   </si>
   <si>
-    <t>images/people/kashyap-gorasiya.jpg</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/kashyap-gorasiya/?originalSubdomain=in</t>
   </si>
   <si>
@@ -172,6 +145,33 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/dhriti-gupta123/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>images/People/vipin-gautam.jpg</t>
+  </si>
+  <si>
+    <t>images/People/aditi-shetkar.jpg</t>
+  </si>
+  <si>
+    <t>images/People/andleep-zuhra.jpg</t>
+  </si>
+  <si>
+    <t>images/People/ashish-verma.jpg</t>
+  </si>
+  <si>
+    <t>images/People/anuj-abraham.jpg</t>
+  </si>
+  <si>
+    <t>images/People/kumar-pandion.jpg</t>
+  </si>
+  <si>
+    <t>images/People/pobbati-koushiki.jpg</t>
+  </si>
+  <si>
+    <t>images/People/harsh-kurdekar.jpg</t>
+  </si>
+  <si>
+    <t>images/People/kashyap-gorasiya.jpg</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,22 +512,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -538,13 +538,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,30 +555,30 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,149 +589,149 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/people.xlsx
+++ b/data/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vipin\New Volume\prasad-research.github.io\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CAF189-66F7-4A2C-B4C4-2C94180CB88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C16995-46A8-4CAE-BF80-1D7BA0B87C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
